--- a/labs/00/experiments/output/experiments_bia.xlsx
+++ b/labs/00/experiments/output/experiments_bia.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,11 +440,6 @@
           <t>DifferentialEvolutionAlgorithm</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>SelfOrganizingMigrationAlgorithm</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -453,10 +448,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.046461047468542</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.042367442851493</v>
+        <v>4.220025993694673</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +458,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.72522244393737</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3160852988379058</v>
+        <v>5.771963841524562</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +468,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.315026495382745</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.327654866680129</v>
+        <v>6.542335757489068</v>
       </c>
     </row>
     <row r="5">
@@ -492,10 +478,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.213649756229911</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2.877706000739797</v>
+        <v>3.379072009028452</v>
       </c>
     </row>
     <row r="6">
@@ -505,10 +488,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.303428340681169</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.026233707253798</v>
+        <v>5.959853523271922</v>
       </c>
     </row>
     <row r="7">
@@ -518,10 +498,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.720757616739947</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.318009463272624</v>
+        <v>5.174650225001736</v>
       </c>
     </row>
     <row r="8">
@@ -531,10 +508,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.160934221771433</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.00270984054582</v>
+        <v>1.181465195809806</v>
       </c>
     </row>
   </sheetData>

--- a/labs/00/experiments/output/experiments_bia.xlsx
+++ b/labs/00/experiments/output/experiments_bia.xlsx
@@ -8,6 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sphere" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Schwefel" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Rosenbrock" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Rastrigin" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Griewangk" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Levy" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Michalewicz" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Zakharov" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Ackley" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,7 +445,27 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>ParticleSwarmOptimizationAlgorithm</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>DifferentialEvolutionAlgorithm</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>FireflyAlgorithm</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>SelfOrganizingMigrationAlgorithm</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>TeachingLearningBasedAlgorithm</t>
         </is>
       </c>
     </row>
@@ -448,7 +476,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.220025993694673</v>
+        <v>0.8736085806346566</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.908889461540208</v>
+      </c>
+      <c r="D2" t="n">
+        <v>86.48467719753127</v>
+      </c>
+      <c r="E2" t="n">
+        <v>32.62598678299221</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9.189889037125565e-13</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +498,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.771963841524562</v>
+        <v>0.8954908861637556</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.830569602327126</v>
+      </c>
+      <c r="D3" t="n">
+        <v>80.72197573059191</v>
+      </c>
+      <c r="E3" t="n">
+        <v>26.42812079829584</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9.612268978703136e-13</v>
       </c>
     </row>
     <row r="4">
@@ -468,7 +520,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.542335757489068</v>
+        <v>0.6709049096602354</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.374201584843227</v>
+      </c>
+      <c r="D4" t="n">
+        <v>93.74293715660554</v>
+      </c>
+      <c r="E4" t="n">
+        <v>25.33620587049707</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.828624971048273e-11</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +542,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.379072009028452</v>
+        <v>0.6927138127234481</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5.455295609636671</v>
+      </c>
+      <c r="D5" t="n">
+        <v>104.9878857596517</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20.04460388026968</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.876356578668637e-11</v>
       </c>
     </row>
     <row r="6">
@@ -488,27 +564,6613 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.959853523271922</v>
+        <v>0.532610550357841</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.366156112986199</v>
+      </c>
+      <c r="D6" t="n">
+        <v>104.1207295333319</v>
+      </c>
+      <c r="E6" t="n">
+        <v>24.58912678051482</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4.209866333629838e-11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>mean</t>
+          <t>Experiment 6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.174650225001736</v>
+        <v>0.9572573135983614</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.634500141837903</v>
+      </c>
+      <c r="D7" t="n">
+        <v>113.60187006983</v>
+      </c>
+      <c r="E7" t="n">
+        <v>29.13804153833257</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.224817904832697e-11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>std_dev</t>
+          <t>Experiment 7</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.181465195809806</v>
+        <v>1.359541536261696</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.007374129737181</v>
+      </c>
+      <c r="D8" t="n">
+        <v>96.69692430778046</v>
+      </c>
+      <c r="E8" t="n">
+        <v>28.30643006515744</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.879567573203797e-14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.159805291713256</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.993910605930792</v>
+      </c>
+      <c r="D9" t="n">
+        <v>103.0990966195783</v>
+      </c>
+      <c r="E9" t="n">
+        <v>22.74787727341951</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.335034813575405e-13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.059266663251833</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.215288085648141</v>
+      </c>
+      <c r="D10" t="n">
+        <v>91.76550739893585</v>
+      </c>
+      <c r="E10" t="n">
+        <v>32.67356847493923</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.362978488442545e-12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.313913180136712</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.668098191858392</v>
+      </c>
+      <c r="D11" t="n">
+        <v>82.15690086487032</v>
+      </c>
+      <c r="E11" t="n">
+        <v>25.54835045668553</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7.824136322503478e-14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.7828029295172836</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.294871346767729</v>
+      </c>
+      <c r="D12" t="n">
+        <v>109.8677846514531</v>
+      </c>
+      <c r="E12" t="n">
+        <v>32.72608989738215</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7.276678061136247e-16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.7044519357870382</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.690201178061367</v>
+      </c>
+      <c r="D13" t="n">
+        <v>83.92630839690595</v>
+      </c>
+      <c r="E13" t="n">
+        <v>29.93052819753804</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5.339685838070475e-11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.921667051495065</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4.830329839220272</v>
+      </c>
+      <c r="D14" t="n">
+        <v>76.06414709480768</v>
+      </c>
+      <c r="E14" t="n">
+        <v>35.89397929174472</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6.321065077134797e-11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9810405455911332</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5.670239346396025</v>
+      </c>
+      <c r="D15" t="n">
+        <v>65.37314261724114</v>
+      </c>
+      <c r="E15" t="n">
+        <v>28.22620452412096</v>
+      </c>
+      <c r="F15" t="n">
+        <v>7.172228140774104e-14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8335023610165423</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5.555161166562376</v>
+      </c>
+      <c r="D16" t="n">
+        <v>113.5319285804286</v>
+      </c>
+      <c r="E16" t="n">
+        <v>20.48069048664375</v>
+      </c>
+      <c r="F16" t="n">
+        <v>7.62903432925763e-11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1.135053481575998</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6.967606317432614</v>
+      </c>
+      <c r="D17" t="n">
+        <v>95.15453734447145</v>
+      </c>
+      <c r="E17" t="n">
+        <v>23.00474703944733</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.159998679107582e-10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9339021448196864</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.763414494469901</v>
+      </c>
+      <c r="D18" t="n">
+        <v>79.89634056832351</v>
+      </c>
+      <c r="E18" t="n">
+        <v>24.11541981897503</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4.50005208317405e-11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.288524655807391</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.826233922375863</v>
+      </c>
+      <c r="D19" t="n">
+        <v>97.34888987051649</v>
+      </c>
+      <c r="E19" t="n">
+        <v>24.73470664356443</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.915187447795564e-11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.034214209716531</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5.043521510137499</v>
+      </c>
+      <c r="D20" t="n">
+        <v>81.30491484690958</v>
+      </c>
+      <c r="E20" t="n">
+        <v>34.61428928812284</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.08000227177785e-09</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.7637238612426148</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.089250748029846</v>
+      </c>
+      <c r="D21" t="n">
+        <v>89.37459757199761</v>
+      </c>
+      <c r="E21" t="n">
+        <v>26.00799067162367</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.317539499811062e-12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.7331215818605641</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.629356770864953</v>
+      </c>
+      <c r="D22" t="n">
+        <v>89.65268220265503</v>
+      </c>
+      <c r="E22" t="n">
+        <v>43.85049403773976</v>
+      </c>
+      <c r="F22" t="n">
+        <v>8.248677505889051e-12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1.450646885768242</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.051104251910973</v>
+      </c>
+      <c r="D23" t="n">
+        <v>99.22796352323549</v>
+      </c>
+      <c r="E23" t="n">
+        <v>29.52176892148572</v>
+      </c>
+      <c r="F23" t="n">
+        <v>7.716768679742149e-10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1.264938680866029</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.980222471486494</v>
+      </c>
+      <c r="D24" t="n">
+        <v>104.5042511930226</v>
+      </c>
+      <c r="E24" t="n">
+        <v>25.36496627459502</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3.116750636304934e-13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1.281834649845185</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.495449919585721</v>
+      </c>
+      <c r="D25" t="n">
+        <v>92.63244687742029</v>
+      </c>
+      <c r="E25" t="n">
+        <v>28.66212810373458</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.067998359205055e-11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.7586247136140098</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5.397327368265493</v>
+      </c>
+      <c r="D26" t="n">
+        <v>98.49549819296787</v>
+      </c>
+      <c r="E26" t="n">
+        <v>27.08864965954884</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8.962117497644897e-13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5793963242409369</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6.419448254022875</v>
+      </c>
+      <c r="D27" t="n">
+        <v>92.36428889676016</v>
+      </c>
+      <c r="E27" t="n">
+        <v>31.83852656072938</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.036852171046889e-11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.16404774720841</v>
+      </c>
+      <c r="C28" t="n">
+        <v>6.081342197870978</v>
+      </c>
+      <c r="D28" t="n">
+        <v>94.85234836718233</v>
+      </c>
+      <c r="E28" t="n">
+        <v>28.9116100081293</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5.936518092433309e-11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1.175701655518041</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4.684611804605761</v>
+      </c>
+      <c r="D29" t="n">
+        <v>97.91455866144329</v>
+      </c>
+      <c r="E29" t="n">
+        <v>36.10911367941755</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.068662070909365e-10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.7825818638492941</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4.198941181459078</v>
+      </c>
+      <c r="D30" t="n">
+        <v>94.58711775106924</v>
+      </c>
+      <c r="E30" t="n">
+        <v>32.02781367328578</v>
+      </c>
+      <c r="F30" t="n">
+        <v>6.946889973773717e-16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1.05770864102301</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6.053044915088051</v>
+      </c>
+      <c r="D31" t="n">
+        <v>85.24421783451494</v>
+      </c>
+      <c r="E31" t="n">
+        <v>21.24033275627671</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2.76569885456579e-13</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.9714199548288265</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.972532084365323</v>
+      </c>
+      <c r="D32" t="n">
+        <v>93.28988232273446</v>
+      </c>
+      <c r="E32" t="n">
+        <v>28.39294538184032</v>
+      </c>
+      <c r="F32" t="n">
+        <v>9.336677865899449e-11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Standard Deviation</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.24367585457124</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.021008169289187</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10.96174826488501</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5.184848119813225</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.321394858684837e-10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ParticleSwarmOptimizationAlgorithm</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DifferentialEvolutionAlgorithm</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>FireflyAlgorithm</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>SelfOrganizingMigrationAlgorithm</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>TeachingLearningBasedAlgorithm</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10693.93412826948</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7753.692925004073</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9957.676864212084</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7664.346917730812</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8007.373502512683</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10608.83903918972</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7737.735873255761</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9199.339456163691</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5762.506408101761</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7906.393897883584</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10422.3784914251</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6408.078005140722</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10464.05412279134</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7431.339281864212</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8788.626684667317</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10556.88919065479</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7393.465155884828</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11037.97705034419</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7311.849445507721</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8429.97046977531</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9728.796414213222</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6942.745056867841</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10368.0064218729</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7104.810386274202</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8446.962890735404</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9040.715703357668</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7882.652715059249</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10859.8871543129</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6852.185155926973</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7379.583106459403</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9276.746818954045</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7337.826317628661</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9632.491178263459</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7072.395844312066</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8522.188412123856</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9699.325095376274</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7614.03391587228</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11081.57010866928</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6993.740018003658</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8256.706875609449</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10450.24641258062</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7674.512680138385</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10452.602382852</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6287.799114067571</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7523.3769180108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10152.94226770307</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7570.207752439915</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10004.62879476959</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7259.238046730679</v>
+      </c>
+      <c r="F11" t="n">
+        <v>8126.244219744588</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10040.77803122343</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7481.55818527943</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10155.33411459772</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7971.688494918875</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8509.634947144586</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10231.21041538123</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7675.839795326531</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10116.14747350138</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7032.42033144363</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8360.220381591298</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8594.926207396298</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7908.993444513476</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10498.34607188523</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7801.023276437527</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8708.213432399181</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10365.42791608594</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7336.830934437172</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10933.88147449138</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7418.718433959924</v>
+      </c>
+      <c r="F15" t="n">
+        <v>7995.74436691251</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9041.148358981642</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7936.999932799602</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10424.2493150027</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7008.179318047254</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6651.219283502197</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9869.615743338973</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7279.025350083106</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10638.45296145756</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7593.907874572488</v>
+      </c>
+      <c r="F17" t="n">
+        <v>8640.276332785268</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9890.441417300695</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7135.771292109895</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10743.90093169859</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7307.870779454025</v>
+      </c>
+      <c r="F18" t="n">
+        <v>8726.926840054688</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9492.002077502741</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6598.239391340217</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10876.66625433924</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7972.785067824157</v>
+      </c>
+      <c r="F19" t="n">
+        <v>8500.999577140141</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9145.293800025265</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7560.44064767812</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10793.59424571732</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7368.578785161235</v>
+      </c>
+      <c r="F20" t="n">
+        <v>9243.328661632901</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>9338.070285332931</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7131.650441775951</v>
+      </c>
+      <c r="D21" t="n">
+        <v>9961.219380227407</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7525.897183074106</v>
+      </c>
+      <c r="F21" t="n">
+        <v>7912.664352903456</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>9977.261171711632</v>
+      </c>
+      <c r="C22" t="n">
+        <v>7819.775922911967</v>
+      </c>
+      <c r="D22" t="n">
+        <v>11330.1670643192</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7091.641918394434</v>
+      </c>
+      <c r="F22" t="n">
+        <v>9130.828451413545</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>10528.8602549035</v>
+      </c>
+      <c r="C23" t="n">
+        <v>7821.46792186265</v>
+      </c>
+      <c r="D23" t="n">
+        <v>10907.12494072863</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6913.425797126638</v>
+      </c>
+      <c r="F23" t="n">
+        <v>7885.746242462501</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>9831.5049583738</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7136.853446153325</v>
+      </c>
+      <c r="D24" t="n">
+        <v>10159.52825529254</v>
+      </c>
+      <c r="E24" t="n">
+        <v>8085.744265752593</v>
+      </c>
+      <c r="F24" t="n">
+        <v>7575.996966212052</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>10559.69093790697</v>
+      </c>
+      <c r="C25" t="n">
+        <v>7346.017822627076</v>
+      </c>
+      <c r="D25" t="n">
+        <v>9242.531611074526</v>
+      </c>
+      <c r="E25" t="n">
+        <v>7262.764589888985</v>
+      </c>
+      <c r="F25" t="n">
+        <v>8884.482149435804</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>9695.574158841377</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6751.889621182879</v>
+      </c>
+      <c r="D26" t="n">
+        <v>10530.10361697345</v>
+      </c>
+      <c r="E26" t="n">
+        <v>7821.866396636369</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7919.450814992961</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>10069.76839163889</v>
+      </c>
+      <c r="C27" t="n">
+        <v>7563.538150921004</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10224.53440815269</v>
+      </c>
+      <c r="E27" t="n">
+        <v>7849.486563839504</v>
+      </c>
+      <c r="F27" t="n">
+        <v>8375.711017094894</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>9150.619525306414</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7355.898767046504</v>
+      </c>
+      <c r="D28" t="n">
+        <v>10426.92317497703</v>
+      </c>
+      <c r="E28" t="n">
+        <v>7484.436740287512</v>
+      </c>
+      <c r="F28" t="n">
+        <v>7632.811153568422</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>10830.41062602275</v>
+      </c>
+      <c r="C29" t="n">
+        <v>7801.815982825996</v>
+      </c>
+      <c r="D29" t="n">
+        <v>10715.37981251055</v>
+      </c>
+      <c r="E29" t="n">
+        <v>7115.892341478297</v>
+      </c>
+      <c r="F29" t="n">
+        <v>7873.985690932838</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>10260.81935804815</v>
+      </c>
+      <c r="C30" t="n">
+        <v>7752.920220406699</v>
+      </c>
+      <c r="D30" t="n">
+        <v>9878.712232001049</v>
+      </c>
+      <c r="E30" t="n">
+        <v>7439.606277356947</v>
+      </c>
+      <c r="F30" t="n">
+        <v>7200.409112461932</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>9936.856192920615</v>
+      </c>
+      <c r="C31" t="n">
+        <v>7370.31771203602</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10853.52209253905</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7768.55493743341</v>
+      </c>
+      <c r="F31" t="n">
+        <v>8418.535565860826</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>9916.036446332238</v>
+      </c>
+      <c r="C32" t="n">
+        <v>7436.026512686977</v>
+      </c>
+      <c r="D32" t="n">
+        <v>10415.61843219129</v>
+      </c>
+      <c r="E32" t="n">
+        <v>7319.15666638692</v>
+      </c>
+      <c r="F32" t="n">
+        <v>8184.487077267479</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Standard Deviation</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>568.7155218850527</v>
+      </c>
+      <c r="C33" t="n">
+        <v>383.0165205074684</v>
+      </c>
+      <c r="D33" t="n">
+        <v>509.8047997813539</v>
+      </c>
+      <c r="E33" t="n">
+        <v>485.5986680015906</v>
+      </c>
+      <c r="F33" t="n">
+        <v>570.9896340044968</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ParticleSwarmOptimizationAlgorithm</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DifferentialEvolutionAlgorithm</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>FireflyAlgorithm</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>SelfOrganizingMigrationAlgorithm</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>TeachingLearningBasedAlgorithm</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>90.86614697948181</v>
+      </c>
+      <c r="C2" t="n">
+        <v>447.4659179337362</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5780.584779946391</v>
+      </c>
+      <c r="E2" t="n">
+        <v>491.6561406122066</v>
+      </c>
+      <c r="F2" t="n">
+        <v>28.97643219854087</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>177.4694721180356</v>
+      </c>
+      <c r="C3" t="n">
+        <v>344.1246998839395</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6709.482731423525</v>
+      </c>
+      <c r="E3" t="n">
+        <v>777.1716481380821</v>
+      </c>
+      <c r="F3" t="n">
+        <v>28.97295330016869</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>63.15239610671303</v>
+      </c>
+      <c r="C4" t="n">
+        <v>516.9408318387415</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7676.979908044977</v>
+      </c>
+      <c r="E4" t="n">
+        <v>570.5459610804127</v>
+      </c>
+      <c r="F4" t="n">
+        <v>28.8852739204964</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>141.9483360425652</v>
+      </c>
+      <c r="C5" t="n">
+        <v>412.2637213160619</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5540.871522454921</v>
+      </c>
+      <c r="E5" t="n">
+        <v>732.3259502395545</v>
+      </c>
+      <c r="F5" t="n">
+        <v>28.96378298953176</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>135.6869922649188</v>
+      </c>
+      <c r="C6" t="n">
+        <v>545.3274905341809</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7238.174379492435</v>
+      </c>
+      <c r="E6" t="n">
+        <v>644.5060439407777</v>
+      </c>
+      <c r="F6" t="n">
+        <v>28.98511535547178</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>175.5461910424634</v>
+      </c>
+      <c r="C7" t="n">
+        <v>266.9192738966588</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6212.939142427528</v>
+      </c>
+      <c r="E7" t="n">
+        <v>557.6566514784083</v>
+      </c>
+      <c r="F7" t="n">
+        <v>28.95845436391193</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>105.7294901668466</v>
+      </c>
+      <c r="C8" t="n">
+        <v>268.4634015668235</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6534.733329784546</v>
+      </c>
+      <c r="E8" t="n">
+        <v>581.8247635725855</v>
+      </c>
+      <c r="F8" t="n">
+        <v>28.97993468950549</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>83.11151628582417</v>
+      </c>
+      <c r="C9" t="n">
+        <v>308.3276069415504</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6731.309101719107</v>
+      </c>
+      <c r="E9" t="n">
+        <v>365.1421486545986</v>
+      </c>
+      <c r="F9" t="n">
+        <v>28.93531874106284</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>111.8300941916409</v>
+      </c>
+      <c r="C10" t="n">
+        <v>280.7335274124674</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6533.241323150221</v>
+      </c>
+      <c r="E10" t="n">
+        <v>314.7636845082736</v>
+      </c>
+      <c r="F10" t="n">
+        <v>28.92093571012116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>144.9000400096506</v>
+      </c>
+      <c r="C11" t="n">
+        <v>399.2929376750855</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8344.199511897352</v>
+      </c>
+      <c r="E11" t="n">
+        <v>501.3101746604619</v>
+      </c>
+      <c r="F11" t="n">
+        <v>28.96157718809855</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>121.6628738466299</v>
+      </c>
+      <c r="C12" t="n">
+        <v>407.3219186540849</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6433.976359069035</v>
+      </c>
+      <c r="E12" t="n">
+        <v>431.6742706531193</v>
+      </c>
+      <c r="F12" t="n">
+        <v>28.92033478468668</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>107.3769601783577</v>
+      </c>
+      <c r="C13" t="n">
+        <v>401.2689330058505</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4339.574375568109</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1036.831190914097</v>
+      </c>
+      <c r="F13" t="n">
+        <v>28.979725474757</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.64525200928877</v>
+      </c>
+      <c r="C14" t="n">
+        <v>396.3150359739662</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7956.728127926562</v>
+      </c>
+      <c r="E14" t="n">
+        <v>885.6865484574143</v>
+      </c>
+      <c r="F14" t="n">
+        <v>28.9006133550036</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>95.85393999295479</v>
+      </c>
+      <c r="C15" t="n">
+        <v>772.8360773234572</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6870.958751802645</v>
+      </c>
+      <c r="E15" t="n">
+        <v>473.1987027228172</v>
+      </c>
+      <c r="F15" t="n">
+        <v>28.95276435521764</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>103.4988473635231</v>
+      </c>
+      <c r="C16" t="n">
+        <v>471.1192792404912</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6772.892837410501</v>
+      </c>
+      <c r="E16" t="n">
+        <v>675.178631373105</v>
+      </c>
+      <c r="F16" t="n">
+        <v>28.96548321246749</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>78.96768826343575</v>
+      </c>
+      <c r="C17" t="n">
+        <v>478.6226220804729</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7289.723436127581</v>
+      </c>
+      <c r="E17" t="n">
+        <v>674.2706192680037</v>
+      </c>
+      <c r="F17" t="n">
+        <v>28.95625619271111</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>170.1641166952157</v>
+      </c>
+      <c r="C18" t="n">
+        <v>267.0334139785086</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7516.145967243529</v>
+      </c>
+      <c r="E18" t="n">
+        <v>365.9536953310983</v>
+      </c>
+      <c r="F18" t="n">
+        <v>28.94244798641452</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>98.65095502027732</v>
+      </c>
+      <c r="C19" t="n">
+        <v>390.1984431846242</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3878.745667537045</v>
+      </c>
+      <c r="E19" t="n">
+        <v>315.9111422832001</v>
+      </c>
+      <c r="F19" t="n">
+        <v>28.97607425252282</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>177.4274754796099</v>
+      </c>
+      <c r="C20" t="n">
+        <v>236.1422347987427</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4882.873212072736</v>
+      </c>
+      <c r="E20" t="n">
+        <v>988.8891201553182</v>
+      </c>
+      <c r="F20" t="n">
+        <v>28.88476214200199</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>75.62085061681698</v>
+      </c>
+      <c r="C21" t="n">
+        <v>331.3267866608507</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6261.968338508529</v>
+      </c>
+      <c r="E21" t="n">
+        <v>648.3695455589025</v>
+      </c>
+      <c r="F21" t="n">
+        <v>28.92774340061305</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>114.2837937538451</v>
+      </c>
+      <c r="C22" t="n">
+        <v>454.0601136345088</v>
+      </c>
+      <c r="D22" t="n">
+        <v>6930.52175825443</v>
+      </c>
+      <c r="E22" t="n">
+        <v>665.1712110756566</v>
+      </c>
+      <c r="F22" t="n">
+        <v>28.9043979967309</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>125.8364346297264</v>
+      </c>
+      <c r="C23" t="n">
+        <v>223.3368541485502</v>
+      </c>
+      <c r="D23" t="n">
+        <v>7218.436134496669</v>
+      </c>
+      <c r="E23" t="n">
+        <v>415.1668856830294</v>
+      </c>
+      <c r="F23" t="n">
+        <v>28.91872328383671</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>154.4668284347369</v>
+      </c>
+      <c r="C24" t="n">
+        <v>322.876968063993</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5472.023674340865</v>
+      </c>
+      <c r="E24" t="n">
+        <v>703.4411585258051</v>
+      </c>
+      <c r="F24" t="n">
+        <v>28.90869579145619</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>74.2530441996936</v>
+      </c>
+      <c r="C25" t="n">
+        <v>614.0543125735885</v>
+      </c>
+      <c r="D25" t="n">
+        <v>7013.625979753738</v>
+      </c>
+      <c r="E25" t="n">
+        <v>559.3417576346121</v>
+      </c>
+      <c r="F25" t="n">
+        <v>28.9784735561006</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>90.22456235346593</v>
+      </c>
+      <c r="C26" t="n">
+        <v>366.1835509149059</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6356.973555909476</v>
+      </c>
+      <c r="E26" t="n">
+        <v>448.5646332555885</v>
+      </c>
+      <c r="F26" t="n">
+        <v>28.92385325234051</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>95.90039176619501</v>
+      </c>
+      <c r="C27" t="n">
+        <v>484.1687994201324</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5470.503432932313</v>
+      </c>
+      <c r="E27" t="n">
+        <v>523.7220278310248</v>
+      </c>
+      <c r="F27" t="n">
+        <v>28.92138859595768</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>154.2258945771119</v>
+      </c>
+      <c r="C28" t="n">
+        <v>303.0728171568071</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7953.684543237477</v>
+      </c>
+      <c r="E28" t="n">
+        <v>478.5708146214662</v>
+      </c>
+      <c r="F28" t="n">
+        <v>28.92511412045917</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>127.8973863366127</v>
+      </c>
+      <c r="C29" t="n">
+        <v>379.1792389276415</v>
+      </c>
+      <c r="D29" t="n">
+        <v>7736.03192640809</v>
+      </c>
+      <c r="E29" t="n">
+        <v>222.575776896101</v>
+      </c>
+      <c r="F29" t="n">
+        <v>28.98041326494248</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>110.1942045862526</v>
+      </c>
+      <c r="C30" t="n">
+        <v>290.7439010362454</v>
+      </c>
+      <c r="D30" t="n">
+        <v>7957.626086607926</v>
+      </c>
+      <c r="E30" t="n">
+        <v>549.6176754744264</v>
+      </c>
+      <c r="F30" t="n">
+        <v>28.96038309115713</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>152.5019205136469</v>
+      </c>
+      <c r="C31" t="n">
+        <v>299.8721509632668</v>
+      </c>
+      <c r="D31" t="n">
+        <v>6394.23457867528</v>
+      </c>
+      <c r="E31" t="n">
+        <v>846.3256365769031</v>
+      </c>
+      <c r="F31" t="n">
+        <v>28.94589831046259</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>118.4964698608512</v>
+      </c>
+      <c r="C32" t="n">
+        <v>389.3197620246645</v>
+      </c>
+      <c r="D32" t="n">
+        <v>6600.325482474117</v>
+      </c>
+      <c r="E32" t="n">
+        <v>581.5121403725683</v>
+      </c>
+      <c r="F32" t="n">
+        <v>28.94377749589164</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Standard Deviation</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>32.71836806151016</v>
+      </c>
+      <c r="C33" t="n">
+        <v>118.3377647140478</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1060.392547964742</v>
+      </c>
+      <c r="E33" t="n">
+        <v>193.0987645777489</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.02975536974189364</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ParticleSwarmOptimizationAlgorithm</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DifferentialEvolutionAlgorithm</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>FireflyAlgorithm</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>SelfOrganizingMigrationAlgorithm</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>TeachingLearningBasedAlgorithm</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>138.9072277773543</v>
+      </c>
+      <c r="C2" t="n">
+        <v>233.1314361242645</v>
+      </c>
+      <c r="D2" t="n">
+        <v>339.6772466253149</v>
+      </c>
+      <c r="E2" t="n">
+        <v>207.1502575513777</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.084384848581976e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>143.5039254209513</v>
+      </c>
+      <c r="C3" t="n">
+        <v>249.5443692710378</v>
+      </c>
+      <c r="D3" t="n">
+        <v>333.6301708945826</v>
+      </c>
+      <c r="E3" t="n">
+        <v>183.8517806651816</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.33745743369218e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>141.6896838803277</v>
+      </c>
+      <c r="C4" t="n">
+        <v>196.6760408919186</v>
+      </c>
+      <c r="D4" t="n">
+        <v>309.725844744056</v>
+      </c>
+      <c r="E4" t="n">
+        <v>194.4793605992454</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.064637444869732e-08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>126.1417555576778</v>
+      </c>
+      <c r="C5" t="n">
+        <v>240.1480089600352</v>
+      </c>
+      <c r="D5" t="n">
+        <v>343.7836580840184</v>
+      </c>
+      <c r="E5" t="n">
+        <v>216.5258512162016</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.876969690783881e-10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>137.7093632356317</v>
+      </c>
+      <c r="C6" t="n">
+        <v>246.0801166262485</v>
+      </c>
+      <c r="D6" t="n">
+        <v>337.1991272680002</v>
+      </c>
+      <c r="E6" t="n">
+        <v>225.1744708904619</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.826936906785704e-09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>92.77329690661975</v>
+      </c>
+      <c r="C7" t="n">
+        <v>229.4851897133171</v>
+      </c>
+      <c r="D7" t="n">
+        <v>348.6096245059745</v>
+      </c>
+      <c r="E7" t="n">
+        <v>192.3344105023492</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.375155989080667e-09</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>131.3010632674656</v>
+      </c>
+      <c r="C8" t="n">
+        <v>224.1794035909058</v>
+      </c>
+      <c r="D8" t="n">
+        <v>339.6045766465387</v>
+      </c>
+      <c r="E8" t="n">
+        <v>188.9929274960171</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5.686615622835234e-10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>135.9161564025276</v>
+      </c>
+      <c r="C9" t="n">
+        <v>242.500507446573</v>
+      </c>
+      <c r="D9" t="n">
+        <v>338.8824452187027</v>
+      </c>
+      <c r="E9" t="n">
+        <v>207.5363849105854</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.277050725751906e-08</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>166.3556740762828</v>
+      </c>
+      <c r="C10" t="n">
+        <v>234.1165727053809</v>
+      </c>
+      <c r="D10" t="n">
+        <v>336.2391769246773</v>
+      </c>
+      <c r="E10" t="n">
+        <v>184.9978263135708</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6.72190481054713e-09</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>109.6201547225163</v>
+      </c>
+      <c r="C11" t="n">
+        <v>234.9799555703648</v>
+      </c>
+      <c r="D11" t="n">
+        <v>346.9174247950896</v>
+      </c>
+      <c r="E11" t="n">
+        <v>216.5087128039106</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.899014361901209e-10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>142.0780795368759</v>
+      </c>
+      <c r="C12" t="n">
+        <v>231.1662494057791</v>
+      </c>
+      <c r="D12" t="n">
+        <v>335.3830050793867</v>
+      </c>
+      <c r="E12" t="n">
+        <v>221.4869355833563</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.537216576252831e-09</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>76.33523590224652</v>
+      </c>
+      <c r="C13" t="n">
+        <v>215.9177282169639</v>
+      </c>
+      <c r="D13" t="n">
+        <v>312.9115303504256</v>
+      </c>
+      <c r="E13" t="n">
+        <v>219.6736086602574</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7.053023409753223e-08</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>129.4102084990553</v>
+      </c>
+      <c r="C14" t="n">
+        <v>240.9499630283051</v>
+      </c>
+      <c r="D14" t="n">
+        <v>333.2713286425296</v>
+      </c>
+      <c r="E14" t="n">
+        <v>189.3119039407898</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4.108073881070595e-10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>127.6336611100166</v>
+      </c>
+      <c r="C15" t="n">
+        <v>239.6783046069838</v>
+      </c>
+      <c r="D15" t="n">
+        <v>330.4711622387096</v>
+      </c>
+      <c r="E15" t="n">
+        <v>164.2797535727651</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8.359393177670427e-10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>122.7123471728582</v>
+      </c>
+      <c r="C16" t="n">
+        <v>236.2733225646921</v>
+      </c>
+      <c r="D16" t="n">
+        <v>336.9510058202628</v>
+      </c>
+      <c r="E16" t="n">
+        <v>213.2301534297096</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3.70417865269701e-08</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>160.266385121646</v>
+      </c>
+      <c r="C17" t="n">
+        <v>217.8246393507096</v>
+      </c>
+      <c r="D17" t="n">
+        <v>352.4444881796385</v>
+      </c>
+      <c r="E17" t="n">
+        <v>213.7631758435078</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.004389105219161e-07</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>117.356502808201</v>
+      </c>
+      <c r="C18" t="n">
+        <v>218.6406992054367</v>
+      </c>
+      <c r="D18" t="n">
+        <v>293.5408980685878</v>
+      </c>
+      <c r="E18" t="n">
+        <v>210.2894146651471</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.250211537102587e-07</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>106.9786397906735</v>
+      </c>
+      <c r="C19" t="n">
+        <v>237.6469528713903</v>
+      </c>
+      <c r="D19" t="n">
+        <v>329.0330445886639</v>
+      </c>
+      <c r="E19" t="n">
+        <v>213.0133993671357</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.360707185289357e-10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>150.2588235546038</v>
+      </c>
+      <c r="C20" t="n">
+        <v>234.4466791544641</v>
+      </c>
+      <c r="D20" t="n">
+        <v>316.3541019727487</v>
+      </c>
+      <c r="E20" t="n">
+        <v>225.6436413317404</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.704165697447024e-10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>130.6767704741171</v>
+      </c>
+      <c r="C21" t="n">
+        <v>229.5342530915996</v>
+      </c>
+      <c r="D21" t="n">
+        <v>312.7743652817317</v>
+      </c>
+      <c r="E21" t="n">
+        <v>195.8862600539215</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6.627033144468442e-09</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>114.6785630855997</v>
+      </c>
+      <c r="C22" t="n">
+        <v>194.5402846703708</v>
+      </c>
+      <c r="D22" t="n">
+        <v>315.1065588592766</v>
+      </c>
+      <c r="E22" t="n">
+        <v>194.3285270232933</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.115895429393277e-07</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>150.438105460481</v>
+      </c>
+      <c r="C23" t="n">
+        <v>229.8989724968427</v>
+      </c>
+      <c r="D23" t="n">
+        <v>339.5975081718635</v>
+      </c>
+      <c r="E23" t="n">
+        <v>191.6193191355007</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.660094651218969e-07</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>148.8985776095244</v>
+      </c>
+      <c r="C24" t="n">
+        <v>252.4335488854462</v>
+      </c>
+      <c r="D24" t="n">
+        <v>355.2309882931606</v>
+      </c>
+      <c r="E24" t="n">
+        <v>232.8772899273156</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.072453414963093e-08</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>127.4858224100399</v>
+      </c>
+      <c r="C25" t="n">
+        <v>216.4329969092972</v>
+      </c>
+      <c r="D25" t="n">
+        <v>321.5850393213551</v>
+      </c>
+      <c r="E25" t="n">
+        <v>197.3164769017289</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.040223989752121e-09</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>185.8863633970571</v>
+      </c>
+      <c r="C26" t="n">
+        <v>231.6594640142039</v>
+      </c>
+      <c r="D26" t="n">
+        <v>364.4848942206403</v>
+      </c>
+      <c r="E26" t="n">
+        <v>212.2922205051308</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5.798028723802418e-12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>124.2044089710832</v>
+      </c>
+      <c r="C27" t="n">
+        <v>219.14497770546</v>
+      </c>
+      <c r="D27" t="n">
+        <v>335.11904748445</v>
+      </c>
+      <c r="E27" t="n">
+        <v>218.142007458392</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.023238382913405e-09</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>90.99554270918014</v>
+      </c>
+      <c r="C28" t="n">
+        <v>238.0392216681334</v>
+      </c>
+      <c r="D28" t="n">
+        <v>344.2658197434666</v>
+      </c>
+      <c r="E28" t="n">
+        <v>211.9482527699891</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3.98842416871048e-08</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>158.3132427946016</v>
+      </c>
+      <c r="C29" t="n">
+        <v>234.2181579884703</v>
+      </c>
+      <c r="D29" t="n">
+        <v>303.7800081676823</v>
+      </c>
+      <c r="E29" t="n">
+        <v>204.035453363164</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.674385430305847e-08</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>172.4318343320745</v>
+      </c>
+      <c r="C30" t="n">
+        <v>240.5421727511175</v>
+      </c>
+      <c r="D30" t="n">
+        <v>324.7791280219655</v>
+      </c>
+      <c r="E30" t="n">
+        <v>197.6518651942629</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.644480107643176e-09</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>125.7522731878215</v>
+      </c>
+      <c r="C31" t="n">
+        <v>236.0598829456055</v>
+      </c>
+      <c r="D31" t="n">
+        <v>344.0485508304763</v>
+      </c>
+      <c r="E31" t="n">
+        <v>228.3581657531733</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3.722755081980722e-08</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>132.8903229725037</v>
+      </c>
+      <c r="C32" t="n">
+        <v>230.8630024143773</v>
+      </c>
+      <c r="D32" t="n">
+        <v>332.5133923014658</v>
+      </c>
+      <c r="E32" t="n">
+        <v>205.7566602476394</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3.331160201014427e-08</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Standard Deviation</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>23.66260185391103</v>
+      </c>
+      <c r="C33" t="n">
+        <v>13.13718406549246</v>
+      </c>
+      <c r="D33" t="n">
+        <v>15.77155437252885</v>
+      </c>
+      <c r="E33" t="n">
+        <v>15.47253103197078</v>
+      </c>
+      <c r="F33" t="n">
+        <v>6.361432234999618e-08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ParticleSwarmOptimizationAlgorithm</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DifferentialEvolutionAlgorithm</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>FireflyAlgorithm</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>SelfOrganizingMigrationAlgorithm</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>TeachingLearningBasedAlgorithm</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>497.0776091733143</v>
+      </c>
+      <c r="C2" t="n">
+        <v>24.61747693275666</v>
+      </c>
+      <c r="D2" t="n">
+        <v>688.1368656457449</v>
+      </c>
+      <c r="E2" t="n">
+        <v>81.60653912750503</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8.040667198727647e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>406.3564202882629</v>
+      </c>
+      <c r="C3" t="n">
+        <v>17.77493755594141</v>
+      </c>
+      <c r="D3" t="n">
+        <v>564.104736126735</v>
+      </c>
+      <c r="E3" t="n">
+        <v>116.2620698568368</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.673820849035224e-06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>350.0288055746918</v>
+      </c>
+      <c r="C4" t="n">
+        <v>20.44154086478721</v>
+      </c>
+      <c r="D4" t="n">
+        <v>689.6018368632856</v>
+      </c>
+      <c r="E4" t="n">
+        <v>87.42655023366152</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.233842855137169e-08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>501.3384622958087</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17.10859790760555</v>
+      </c>
+      <c r="D5" t="n">
+        <v>584.4879577935786</v>
+      </c>
+      <c r="E5" t="n">
+        <v>112.2663699704221</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.912765473261913e-09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>486.5691672704107</v>
+      </c>
+      <c r="C6" t="n">
+        <v>19.98397281721495</v>
+      </c>
+      <c r="D6" t="n">
+        <v>610.3220704693</v>
+      </c>
+      <c r="E6" t="n">
+        <v>105.2002289106741</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5.230667177169579e-08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>464.4550059367581</v>
+      </c>
+      <c r="C7" t="n">
+        <v>23.58272675505021</v>
+      </c>
+      <c r="D7" t="n">
+        <v>702.7967045262775</v>
+      </c>
+      <c r="E7" t="n">
+        <v>69.10287315354479</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.586091079643694e-08</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>427.9267139578284</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10.86324241763304</v>
+      </c>
+      <c r="D8" t="n">
+        <v>652.0791196557462</v>
+      </c>
+      <c r="E8" t="n">
+        <v>97.71951071939986</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.81073045446567e-08</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>444.7665847431754</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11.79710423338946</v>
+      </c>
+      <c r="D9" t="n">
+        <v>562.7818380298917</v>
+      </c>
+      <c r="E9" t="n">
+        <v>124.8684683782099</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.042248731764062e-09</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>346.4910587054424</v>
+      </c>
+      <c r="C10" t="n">
+        <v>25.78059521908403</v>
+      </c>
+      <c r="D10" t="n">
+        <v>673.7368160814959</v>
+      </c>
+      <c r="E10" t="n">
+        <v>88.32667794947614</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6.531860766711972e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>445.8913738462099</v>
+      </c>
+      <c r="C11" t="n">
+        <v>13.59242016443681</v>
+      </c>
+      <c r="D11" t="n">
+        <v>570.9996300733721</v>
+      </c>
+      <c r="E11" t="n">
+        <v>87.4130934179791</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5.342004616437634e-10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>451.9342238842903</v>
+      </c>
+      <c r="C12" t="n">
+        <v>16.9366488720681</v>
+      </c>
+      <c r="D12" t="n">
+        <v>628.4049657631965</v>
+      </c>
+      <c r="E12" t="n">
+        <v>120.3329194020757</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.893668010235274e-08</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>477.0217583910501</v>
+      </c>
+      <c r="C13" t="n">
+        <v>16.99187407624356</v>
+      </c>
+      <c r="D13" t="n">
+        <v>587.4895244987185</v>
+      </c>
+      <c r="E13" t="n">
+        <v>119.2100246323671</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.033420216651649e-07</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>486.4088849317648</v>
+      </c>
+      <c r="C14" t="n">
+        <v>18.53180823729808</v>
+      </c>
+      <c r="D14" t="n">
+        <v>656.8671791981989</v>
+      </c>
+      <c r="E14" t="n">
+        <v>114.3108185830934</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4.231198058590735e-09</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>473.7882401870029</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13.07314570533679</v>
+      </c>
+      <c r="D15" t="n">
+        <v>663.455292138396</v>
+      </c>
+      <c r="E15" t="n">
+        <v>114.027368416436</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5.975548533765362e-08</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>442.301850204077</v>
+      </c>
+      <c r="C16" t="n">
+        <v>13.74978405045485</v>
+      </c>
+      <c r="D16" t="n">
+        <v>652.8761801527024</v>
+      </c>
+      <c r="E16" t="n">
+        <v>142.8068931455728</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4.274190589348414e-06</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>415.2893889348629</v>
+      </c>
+      <c r="C17" t="n">
+        <v>28.34791907109323</v>
+      </c>
+      <c r="D17" t="n">
+        <v>625.6182109138448</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.06371275330034</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.327666754313839e-09</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>492.378571500335</v>
+      </c>
+      <c r="C18" t="n">
+        <v>17.59115052515985</v>
+      </c>
+      <c r="D18" t="n">
+        <v>526.616148000845</v>
+      </c>
+      <c r="E18" t="n">
+        <v>132.5621422656378</v>
+      </c>
+      <c r="F18" t="n">
+        <v>6.596295731853274e-09</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>366.2456299476025</v>
+      </c>
+      <c r="C19" t="n">
+        <v>21.37441527511562</v>
+      </c>
+      <c r="D19" t="n">
+        <v>566.0494659902002</v>
+      </c>
+      <c r="E19" t="n">
+        <v>90.91462095449143</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.176062291996516e-08</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>429.5500908122157</v>
+      </c>
+      <c r="C20" t="n">
+        <v>23.06887459533733</v>
+      </c>
+      <c r="D20" t="n">
+        <v>657.2029588450945</v>
+      </c>
+      <c r="E20" t="n">
+        <v>87.90971648874648</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.294788720684892e-10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>433.5040069664465</v>
+      </c>
+      <c r="C21" t="n">
+        <v>16.47013376574174</v>
+      </c>
+      <c r="D21" t="n">
+        <v>479.969717931132</v>
+      </c>
+      <c r="E21" t="n">
+        <v>87.2349487060558</v>
+      </c>
+      <c r="F21" t="n">
+        <v>8.560940845114828e-11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>442.3809269368235</v>
+      </c>
+      <c r="C22" t="n">
+        <v>13.78680410165383</v>
+      </c>
+      <c r="D22" t="n">
+        <v>605.3437135512264</v>
+      </c>
+      <c r="E22" t="n">
+        <v>142.901467466759</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.517255210359281e-09</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>482.6223757477739</v>
+      </c>
+      <c r="C23" t="n">
+        <v>20.78645490944432</v>
+      </c>
+      <c r="D23" t="n">
+        <v>600.6061207861729</v>
+      </c>
+      <c r="E23" t="n">
+        <v>78.20537366341384</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.192800858085263e-09</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>417.4981318829419</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22.73483830321674</v>
+      </c>
+      <c r="D24" t="n">
+        <v>633.4044420563613</v>
+      </c>
+      <c r="E24" t="n">
+        <v>109.5884219678274</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3.067058762518116e-08</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>409.1735043421048</v>
+      </c>
+      <c r="C25" t="n">
+        <v>14.04803991032757</v>
+      </c>
+      <c r="D25" t="n">
+        <v>672.8050710962328</v>
+      </c>
+      <c r="E25" t="n">
+        <v>105.3238037518486</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3.395905012748557e-08</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>466.5810406332012</v>
+      </c>
+      <c r="C26" t="n">
+        <v>12.56749968744896</v>
+      </c>
+      <c r="D26" t="n">
+        <v>662.8174740941677</v>
+      </c>
+      <c r="E26" t="n">
+        <v>84.29231061020715</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.48192529358937e-08</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>411.4544646954955</v>
+      </c>
+      <c r="C27" t="n">
+        <v>18.15452670109498</v>
+      </c>
+      <c r="D27" t="n">
+        <v>584.307289916673</v>
+      </c>
+      <c r="E27" t="n">
+        <v>105.7276685015841</v>
+      </c>
+      <c r="F27" t="n">
+        <v>9.81436909519573e-09</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>420.9193826652835</v>
+      </c>
+      <c r="C28" t="n">
+        <v>12.99494553496032</v>
+      </c>
+      <c r="D28" t="n">
+        <v>593.7180589562386</v>
+      </c>
+      <c r="E28" t="n">
+        <v>110.3283347339424</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.780648406501939e-09</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>486.2406425868642</v>
+      </c>
+      <c r="C29" t="n">
+        <v>28.80382540547807</v>
+      </c>
+      <c r="D29" t="n">
+        <v>516.6218902455262</v>
+      </c>
+      <c r="E29" t="n">
+        <v>107.3843117753041</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5.438399730550714e-10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>487.4685990021978</v>
+      </c>
+      <c r="C30" t="n">
+        <v>17.24157984186821</v>
+      </c>
+      <c r="D30" t="n">
+        <v>671.319828710038</v>
+      </c>
+      <c r="E30" t="n">
+        <v>81.88082114352018</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.978831543070214e-10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>419.2016170208813</v>
+      </c>
+      <c r="C31" t="n">
+        <v>14.56333295942095</v>
+      </c>
+      <c r="D31" t="n">
+        <v>625.8584448431044</v>
+      </c>
+      <c r="E31" t="n">
+        <v>84.07056844531952</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.374787506058794e-09</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>442.7621511021706</v>
+      </c>
+      <c r="C32" t="n">
+        <v>18.24534054655541</v>
+      </c>
+      <c r="D32" t="n">
+        <v>617.0133184317832</v>
+      </c>
+      <c r="E32" t="n">
+        <v>102.8756209708404</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2.412247417038493e-07</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Standard Deviation</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>41.42438121411792</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4.802605685712807</v>
+      </c>
+      <c r="D33" t="n">
+        <v>54.45757952950942</v>
+      </c>
+      <c r="E33" t="n">
+        <v>18.70731644245278</v>
+      </c>
+      <c r="F33" t="n">
+        <v>8.126444771925512e-07</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ParticleSwarmOptimizationAlgorithm</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DifferentialEvolutionAlgorithm</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>FireflyAlgorithm</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>SelfOrganizingMigrationAlgorithm</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>TeachingLearningBasedAlgorithm</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.04995294099576535</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8708804371816186</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1564.405272618964</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.007337639392934963</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.397833369032853e-05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2261628534015893</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3744924924546603</v>
+      </c>
+      <c r="D3" t="n">
+        <v>597.6306507209105</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.02707285730870074</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.062540761161491e-05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1801310531741721</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2693457941705399</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.3409516613596</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0004695878681971104</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.6972046989853335</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.01989731895367006</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2168219744006994</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1135.162758770765</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.001427967802982705</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4.534316629119336e-08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2.765088168813108</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4633328589516552</v>
+      </c>
+      <c r="D6" t="n">
+        <v>202.1696010718756</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.02989186818229725</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5.178307493635506e-09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8605647637553796</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6903308043757612</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1739.638674892105</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.003183182699849735</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.908160211737118e-07</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1004902110229707</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1528176473099287</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1522.599136047317</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.31810379043155e-05</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.971270682081932e-06</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1241.249703148457</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.124642734315264</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1144.310186221538</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.001151606491516909</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.003662341575512535</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8808974330373254</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2595004261635149</v>
+      </c>
+      <c r="D10" t="n">
+        <v>846.8522182105698</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.004228808877543614</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.001559579484329547</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.263060472264292</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5790170512253554</v>
+      </c>
+      <c r="D11" t="n">
+        <v>102.678930089411</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0003566349944615376</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1136227405348852</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.07366867423582089</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.277167787180654</v>
+      </c>
+      <c r="D12" t="n">
+        <v>88.536469759989</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.01004979975144514</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.088555681088515e-08</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.4018111626062983</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.3686140593447047</v>
+      </c>
+      <c r="D13" t="n">
+        <v>33.05259906046526</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.08042864397880697</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3.015822816556927e-09</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>30.37493176942532</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3539128463779413</v>
+      </c>
+      <c r="D14" t="n">
+        <v>110.5093859327557</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.005835563579752304</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.414409789591929e-06</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>43.10802589439363</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2562864549983767</v>
+      </c>
+      <c r="D15" t="n">
+        <v>125.5047315180286</v>
+      </c>
+      <c r="E15" t="n">
+        <v>81.00000011611276</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3.282677608689855e-08</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.02131106752896498</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2343341746020705</v>
+      </c>
+      <c r="D16" t="n">
+        <v>267.9170244852176</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.1111362353102802</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.94056058261946e-08</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1.223195243772316</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.045862406819931</v>
+      </c>
+      <c r="D17" t="n">
+        <v>191.4672652116301</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.003461496872671763</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.02892986630023179</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2.316133289076139</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5670791002823945</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1072.665631134704</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.002342034575157814</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.802654522208862e-06</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.119107379127157</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.04538738061240357</v>
+      </c>
+      <c r="D19" t="n">
+        <v>376.4920068813721</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.008373086761738474</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.006165799907436442</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>111.105328202556</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5380675121214175</v>
+      </c>
+      <c r="D20" t="n">
+        <v>219.8577075026817</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.003414545769870082</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.945339283144563e-10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.02746985968829036</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4897422937120146</v>
+      </c>
+      <c r="D21" t="n">
+        <v>239.8832964014874</v>
+      </c>
+      <c r="E21" t="n">
+        <v>23.11364490672403</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0007806654817653681</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.6486336446904004</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1545467414251051</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1399.519082247467</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.03342754724625075</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3.877348868106294e-06</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5782886094644812</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8091727719490781</v>
+      </c>
+      <c r="D23" t="n">
+        <v>38.53850492380184</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.02163473475888658</v>
+      </c>
+      <c r="F23" t="n">
+        <v>31.2757821739015</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1.366282499906145</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.6663562250233968</v>
+      </c>
+      <c r="D24" t="n">
+        <v>447.4356773682151</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.001121055246841119</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3.446069312733478e-09</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.6224733828054833</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.4275167392230239</v>
+      </c>
+      <c r="D25" t="n">
+        <v>58.6393895617217</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.1863256538544129</v>
+      </c>
+      <c r="F25" t="n">
+        <v>78.88853739797997</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1372620382897035</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.4785821302197661</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3406.469194979753</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.008016773002600276</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0002044424262651798</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>4.066835092009025</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.7103867253541266</v>
+      </c>
+      <c r="D27" t="n">
+        <v>927.6653075452127</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.004832123726360966</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0002370673723920311</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>46.58011300688956</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.4671429020978028</v>
+      </c>
+      <c r="D28" t="n">
+        <v>84.15162381729837</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0002296051266767287</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.801859125573862e-05</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>15.03563243651799</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.219351679420391</v>
+      </c>
+      <c r="D29" t="n">
+        <v>10.45922314252758</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.07938878693595103</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0005254567990438249</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.7979284308701092</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.4334620461287925</v>
+      </c>
+      <c r="D30" t="n">
+        <v>718.4870607189679</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.2331071319745554</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.776901950928657e-06</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2.676866098485254</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.02591297149699084</v>
+      </c>
+      <c r="D31" t="n">
+        <v>694.476792896974</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.04973160623609307</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3.504802300522281e-06</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>50.29590820487378</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.4190022389646461</v>
+      </c>
+      <c r="D32" t="n">
+        <v>646.8838785131696</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3.50105449274005</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3.700578224052706</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Standard Deviation</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>222.2893647452609</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.2438229016878228</v>
+      </c>
+      <c r="D33" t="n">
+        <v>733.512874467025</v>
+      </c>
+      <c r="E33" t="n">
+        <v>14.97513427384051</v>
+      </c>
+      <c r="F33" t="n">
+        <v>15.04576064756969</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ParticleSwarmOptimizationAlgorithm</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DifferentialEvolutionAlgorithm</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>FireflyAlgorithm</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>SelfOrganizingMigrationAlgorithm</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>TeachingLearningBasedAlgorithm</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-7.497020418886007</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-11.67288082349188</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-7.241138316174955</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-11.81428081585193</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-12.77059410607648</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-7.428180409037463</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-10.79938472577329</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-8.096184203504354</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-10.23512027494363</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-14.31689469558633</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-6.738104690113702</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-9.73453807279094</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-8.330934696324304</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-12.7800945522915</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-12.67076254849356</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-7.093366809568762</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-10.76898672350198</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-7.523372995335772</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-13.07564814493101</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-13.91732421529652</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-8.088237347439776</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-11.0768811608693</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-7.503565986066453</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-11.89753563380765</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-13.87012212426213</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-7.865110691443173</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-12.06319964056942</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-7.648540655976933</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-12.79692343410392</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-15.83205755065272</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-8.567542000424057</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-11.03655046108105</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-7.944285035743028</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-11.8044585008243</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-16.34462468254208</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-7.798207003091455</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-12.60672608861798</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-8.318592009824776</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-15.76341909635688</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-12.2877507449828</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-6.663455311293857</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-10.90525375161722</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-7.376710367481782</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-12.53254790078158</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-13.61151140350182</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-10.09617159282097</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-11.36186727918808</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-6.998431556196851</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-12.30570026077435</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-13.00214661626804</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-7.963014520303858</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-11.65771962245944</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-7.202405134643359</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-13.16727305558335</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-15.27513624163662</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-7.390265453146605</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-11.65039912578722</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-7.255510060952334</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-11.38317701377827</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-13.34080517183653</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-8.602805986729747</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-11.33221912151578</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-7.534219618638313</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-12.33329417085496</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-13.67875427022248</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-8.123204571775041</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-12.09779445558754</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-7.666419159354625</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-14.2674542275621</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-13.63229448209645</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-11.52400191353549</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-11.96002182564958</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-6.958268640048311</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-11.65431460326375</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-12.30132541702935</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-7.5090050284236</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-11.31720602503296</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-7.968942434394976</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-12.92680476472439</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-14.5532742827533</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-6.885102337439679</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-13.22410090163663</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-7.460670145931059</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-13.08866077125466</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-13.24985650479397</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-8.813811807182713</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-12.13127188739816</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-7.357614414695754</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-15.64604254016716</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-13.10656259487921</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-7.678897568326589</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-11.01322396226518</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-7.060205181814124</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-12.15547656801409</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-12.20776172243976</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-7.61449454192155</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-11.55749098742293</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-6.315585409705228</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-13.42478706003066</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-13.07308330754305</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-9.975491366827821</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-10.86535150640619</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-7.399486295260694</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-11.0773150837117</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-14.8390225951989</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-7.81710899419167</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-11.87949646073138</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-7.100397179194728</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-12.70707139834461</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-12.27416409317906</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-12.39629214041168</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-10.35303375315285</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-7.463740527197258</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-11.41767308281134</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-17.01316878319199</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-7.550444193048063</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-11.29599439480176</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-7.689716256650196</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-12.25731441151364</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-13.32674538028327</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-7.502481548950999</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-11.62658321875394</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-6.8401966691737</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-13.31396305589385</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-13.55334998953549</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-7.33286057972089</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-10.8280433822279</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-7.762968147403024</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-14.69565273729539</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-12.05283892555524</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-8.959061510318012</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-12.15947465184233</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-7.651197092036677</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-13.98134248755096</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-12.78357963986427</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-6.874682196092231</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-12.39365187765359</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-8.210233507844933</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-13.19397908565064</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-15.0922407536949</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-6.772723009139209</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-11.19987773251827</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-6.936406075666971</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-11.05274135425024</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-13.66366983094534</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-10.59106460313098</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-10.54755264029813</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-7.538070846700795</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-11.55457125553326</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-13.06058255750249</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-8.190407004824523</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-11.43722587535476</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-7.478466953997876</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-12.67682124474853</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-13.69006684106147</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Standard Deviation</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1.397714951284491</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.7130682586162124</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.4517554965509669</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.266228192762758</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.228138493867028</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ParticleSwarmOptimizationAlgorithm</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DifferentialEvolutionAlgorithm</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>FireflyAlgorithm</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>SelfOrganizingMigrationAlgorithm</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>TeachingLearningBasedAlgorithm</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>116.4040838214884</v>
+      </c>
+      <c r="C2" t="n">
+        <v>438.3112866662326</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9967.863755317218</v>
+      </c>
+      <c r="E2" t="n">
+        <v>732.625351517884</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5.916038437560791e-07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>137.9206725823442</v>
+      </c>
+      <c r="C3" t="n">
+        <v>496.5332787935538</v>
+      </c>
+      <c r="D3" t="n">
+        <v>366.537504835086</v>
+      </c>
+      <c r="E3" t="n">
+        <v>186.4471581233387</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6.072497285381429e-09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>130.9290782503281</v>
+      </c>
+      <c r="C4" t="n">
+        <v>541.9582691072934</v>
+      </c>
+      <c r="D4" t="n">
+        <v>461.1478449603688</v>
+      </c>
+      <c r="E4" t="n">
+        <v>290.0320846735801</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4.855520357375978e-10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>111.963035839725</v>
+      </c>
+      <c r="C5" t="n">
+        <v>462.7066630352056</v>
+      </c>
+      <c r="D5" t="n">
+        <v>499.0805369516376</v>
+      </c>
+      <c r="E5" t="n">
+        <v>715.4092928705319</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.9530260608031e-09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>92.2466194131997</v>
+      </c>
+      <c r="C6" t="n">
+        <v>384.6687743121483</v>
+      </c>
+      <c r="D6" t="n">
+        <v>371.9171319728858</v>
+      </c>
+      <c r="E6" t="n">
+        <v>751.42548905358</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6.349080139360195e-09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>53.40580147411476</v>
+      </c>
+      <c r="C7" t="n">
+        <v>410.699031897022</v>
+      </c>
+      <c r="D7" t="n">
+        <v>336.3185625781538</v>
+      </c>
+      <c r="E7" t="n">
+        <v>399.3877804976502</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.156757050429651e-08</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>117.587401720433</v>
+      </c>
+      <c r="C8" t="n">
+        <v>409.1839577747994</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7227.090167844714</v>
+      </c>
+      <c r="E8" t="n">
+        <v>280.9285089307574</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.262024537162869e-06</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>124.4059095555947</v>
+      </c>
+      <c r="C9" t="n">
+        <v>450.9878731452881</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3172155.593743382</v>
+      </c>
+      <c r="E9" t="n">
+        <v>471.5605351089299</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6.144206555416919e-09</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>131.4156846962244</v>
+      </c>
+      <c r="C10" t="n">
+        <v>522.9339398027371</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4346696.238116907</v>
+      </c>
+      <c r="E10" t="n">
+        <v>445.2179441670764</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.834853241901863e-10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>63.61153070879227</v>
+      </c>
+      <c r="C11" t="n">
+        <v>448.2087537062938</v>
+      </c>
+      <c r="D11" t="n">
+        <v>340.1128376412312</v>
+      </c>
+      <c r="E11" t="n">
+        <v>430.5469479717578</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7.992408463234661e-11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>168.0140111768048</v>
+      </c>
+      <c r="C12" t="n">
+        <v>339.5000766887163</v>
+      </c>
+      <c r="D12" t="n">
+        <v>285321.7124495839</v>
+      </c>
+      <c r="E12" t="n">
+        <v>811.2515532017532</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6.82887239258985e-09</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>88.6847876792019</v>
+      </c>
+      <c r="C13" t="n">
+        <v>450.029893955529</v>
+      </c>
+      <c r="D13" t="n">
+        <v>72585184.00085478</v>
+      </c>
+      <c r="E13" t="n">
+        <v>628.6046379118721</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5.061285126978283e-08</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>49.02327364829366</v>
+      </c>
+      <c r="C14" t="n">
+        <v>431.5270219418907</v>
+      </c>
+      <c r="D14" t="n">
+        <v>411.2235516758251</v>
+      </c>
+      <c r="E14" t="n">
+        <v>302.5281373946645</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3.533695734471071e-09</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>73.12197726923306</v>
+      </c>
+      <c r="C15" t="n">
+        <v>394.6291967439585</v>
+      </c>
+      <c r="D15" t="n">
+        <v>127810.8758754281</v>
+      </c>
+      <c r="E15" t="n">
+        <v>417.8950990633425</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3.252160237255589e-07</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>61.03706332945438</v>
+      </c>
+      <c r="C16" t="n">
+        <v>374.9732335801967</v>
+      </c>
+      <c r="D16" t="n">
+        <v>353031227.7345354</v>
+      </c>
+      <c r="E16" t="n">
+        <v>488.0625559452924</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.374214791645274e-09</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>245.4805610745238</v>
+      </c>
+      <c r="C17" t="n">
+        <v>562.4906809407925</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1172356.286280429</v>
+      </c>
+      <c r="E17" t="n">
+        <v>601.877094040871</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6.417831518676293e-09</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>96.701793097468</v>
+      </c>
+      <c r="C18" t="n">
+        <v>330.608862440612</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3193.699804196009</v>
+      </c>
+      <c r="E18" t="n">
+        <v>415.4142353144012</v>
+      </c>
+      <c r="F18" t="n">
+        <v>6.674159866664687e-08</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>89.60299283200392</v>
+      </c>
+      <c r="C19" t="n">
+        <v>466.2741848118197</v>
+      </c>
+      <c r="D19" t="n">
+        <v>17145.75096648553</v>
+      </c>
+      <c r="E19" t="n">
+        <v>221.1446998491834</v>
+      </c>
+      <c r="F19" t="n">
+        <v>6.851908910313722e-09</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>90.45538237283347</v>
+      </c>
+      <c r="C20" t="n">
+        <v>380.2407638285502</v>
+      </c>
+      <c r="D20" t="n">
+        <v>66164728.30777055</v>
+      </c>
+      <c r="E20" t="n">
+        <v>561.9272582801558</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.87243653356483e-11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>77.36620121641182</v>
+      </c>
+      <c r="C21" t="n">
+        <v>520.8516276954794</v>
+      </c>
+      <c r="D21" t="n">
+        <v>244355040.2132312</v>
+      </c>
+      <c r="E21" t="n">
+        <v>826.6335139895057</v>
+      </c>
+      <c r="F21" t="n">
+        <v>8.142545855436759e-08</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>109.0462893150186</v>
+      </c>
+      <c r="C22" t="n">
+        <v>430.7004795841685</v>
+      </c>
+      <c r="D22" t="n">
+        <v>93114752.1418242</v>
+      </c>
+      <c r="E22" t="n">
+        <v>487.0288480655016</v>
+      </c>
+      <c r="F22" t="n">
+        <v>7.697331975868891e-09</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>58.32069787612823</v>
+      </c>
+      <c r="C23" t="n">
+        <v>435.774802280083</v>
+      </c>
+      <c r="D23" t="n">
+        <v>28038.06584864526</v>
+      </c>
+      <c r="E23" t="n">
+        <v>559.3276519830588</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.145500206825459e-08</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>139.4456383217287</v>
+      </c>
+      <c r="C24" t="n">
+        <v>311.1442378271695</v>
+      </c>
+      <c r="D24" t="n">
+        <v>206633208.3157409</v>
+      </c>
+      <c r="E24" t="n">
+        <v>617.9891160203849</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.791664106321469e-08</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>57.22685512890848</v>
+      </c>
+      <c r="C25" t="n">
+        <v>488.6192273073538</v>
+      </c>
+      <c r="D25" t="n">
+        <v>846.6023173032647</v>
+      </c>
+      <c r="E25" t="n">
+        <v>687.4205798752847</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.737520353705929e-07</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>111.5713408007187</v>
+      </c>
+      <c r="C26" t="n">
+        <v>518.5603128359193</v>
+      </c>
+      <c r="D26" t="n">
+        <v>95231722.43177605</v>
+      </c>
+      <c r="E26" t="n">
+        <v>521.713726799966</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3.666700227814978e-09</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>94.9692590075681</v>
+      </c>
+      <c r="C27" t="n">
+        <v>444.0714646171001</v>
+      </c>
+      <c r="D27" t="n">
+        <v>257.4192627468329</v>
+      </c>
+      <c r="E27" t="n">
+        <v>227.4475731286724</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5.275942344831916e-11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>86.11107548726392</v>
+      </c>
+      <c r="C28" t="n">
+        <v>355.9605972470879</v>
+      </c>
+      <c r="D28" t="n">
+        <v>917716.2680446262</v>
+      </c>
+      <c r="E28" t="n">
+        <v>232.3247126644531</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5.514738146755252e-09</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>111.0565994116778</v>
+      </c>
+      <c r="C29" t="n">
+        <v>375.9012842355401</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4034415.85907237</v>
+      </c>
+      <c r="E29" t="n">
+        <v>409.2115217306165</v>
+      </c>
+      <c r="F29" t="n">
+        <v>8.107275101108716e-09</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>7062705.354493488</v>
+      </c>
+      <c r="C30" t="n">
+        <v>436.4325938513005</v>
+      </c>
+      <c r="D30" t="n">
+        <v>34029.00728175482</v>
+      </c>
+      <c r="E30" t="n">
+        <v>528.5433030764851</v>
+      </c>
+      <c r="F30" t="n">
+        <v>8.107722242871037e-10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>120.1410898589187</v>
+      </c>
+      <c r="C31" t="n">
+        <v>515.0079354492528</v>
+      </c>
+      <c r="D31" t="n">
+        <v>389.1994153447822</v>
+      </c>
+      <c r="E31" t="n">
+        <v>404.3459329878348</v>
+      </c>
+      <c r="F31" t="n">
+        <v>6.742763141712626e-11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>235523.7540400151</v>
+      </c>
+      <c r="C32" t="n">
+        <v>437.6496768701032</v>
+      </c>
+      <c r="D32" t="n">
+        <v>38175873.90053688</v>
+      </c>
+      <c r="E32" t="n">
+        <v>488.4757614746129</v>
+      </c>
+      <c r="F32" t="n">
+        <v>8.915085286903059e-08</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Standard Deviation</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1267775.796689486</v>
+      </c>
+      <c r="C33" t="n">
+        <v>63.84330808773026</v>
+      </c>
+      <c r="D33" t="n">
+        <v>83815106.75716212</v>
+      </c>
+      <c r="E33" t="n">
+        <v>178.0786449860688</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.486864343804877e-07</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ParticleSwarmOptimizationAlgorithm</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DifferentialEvolutionAlgorithm</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>FireflyAlgorithm</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>SelfOrganizingMigrationAlgorithm</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>TeachingLearningBasedAlgorithm</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.778868158650071</v>
+      </c>
+      <c r="C2" t="n">
+        <v>11.25235605550489</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.6424154557096</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15.96203729424785</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.09536717096599245</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.843234810445264</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11.41308646892843</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.49777726188848</v>
+      </c>
+      <c r="E3" t="n">
+        <v>14.47233462141498</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.09534895752021511</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4.544854171577796</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10.98930343648391</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.18878093900748</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16.44604435490775</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.09530973640929075</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4.601848302773423</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.55444573713077</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19.70662499627714</v>
+      </c>
+      <c r="E5" t="n">
+        <v>16.66532619943327</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.0953683978789317</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5.39579335998824</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10.5054770428038</v>
+      </c>
+      <c r="D6" t="n">
+        <v>19.79862373979648</v>
+      </c>
+      <c r="E6" t="n">
+        <v>16.67834748486339</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.09536611949740204</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4.513884324098836</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9.561200041289322</v>
+      </c>
+      <c r="D7" t="n">
+        <v>19.74048489479342</v>
+      </c>
+      <c r="E7" t="n">
+        <v>16.80253983722827</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.09536757335217727</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5.707091197391389</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10.92103566629996</v>
+      </c>
+      <c r="D8" t="n">
+        <v>19.63074747352379</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13.69842927260773</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.09536127189215504</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.304221686806475</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11.52311307528873</v>
+      </c>
+      <c r="D9" t="n">
+        <v>19.63713380962362</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15.76608299204765</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.09536107175600561</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.359334020080575</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10.56674505484007</v>
+      </c>
+      <c r="D10" t="n">
+        <v>19.83345540180498</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15.28422549286466</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.09536291052608403</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6.206095835422808</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11.69339549325169</v>
+      </c>
+      <c r="D11" t="n">
+        <v>19.73895620427156</v>
+      </c>
+      <c r="E11" t="n">
+        <v>14.47057266888357</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.09535826363793687</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4.14065969632713</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9.227712339752532</v>
+      </c>
+      <c r="D12" t="n">
+        <v>19.78504853377054</v>
+      </c>
+      <c r="E12" t="n">
+        <v>16.32037077199823</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.09536011400858824</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4.686982720508222</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11.1795660988185</v>
+      </c>
+      <c r="D13" t="n">
+        <v>19.84274374211814</v>
+      </c>
+      <c r="E13" t="n">
+        <v>15.52930581720181</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.0953646681808098</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7.469822201146792</v>
+      </c>
+      <c r="C14" t="n">
+        <v>10.83158361720626</v>
+      </c>
+      <c r="D14" t="n">
+        <v>19.78342671509245</v>
+      </c>
+      <c r="E14" t="n">
+        <v>16.72608332290591</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.09535075249285496</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5.349431426622388</v>
+      </c>
+      <c r="C15" t="n">
+        <v>12.35772377151603</v>
+      </c>
+      <c r="D15" t="n">
+        <v>19.67404177580248</v>
+      </c>
+      <c r="E15" t="n">
+        <v>16.12434211895944</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.09536315182355848</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4.669105117406456</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9.53615466533452</v>
+      </c>
+      <c r="D16" t="n">
+        <v>20.01448244902004</v>
+      </c>
+      <c r="E16" t="n">
+        <v>17.10685695069069</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.09534254528604036</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3.635128454218532</v>
+      </c>
+      <c r="C17" t="n">
+        <v>11.80536755479532</v>
+      </c>
+      <c r="D17" t="n">
+        <v>19.72035632591517</v>
+      </c>
+      <c r="E17" t="n">
+        <v>16.31737723943723</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.09534906937581367</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4.609486316851335</v>
+      </c>
+      <c r="C18" t="n">
+        <v>10.51000717392508</v>
+      </c>
+      <c r="D18" t="n">
+        <v>19.84632953568129</v>
+      </c>
+      <c r="E18" t="n">
+        <v>15.07135506195953</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.09536468571067003</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5.086886087038348</v>
+      </c>
+      <c r="C19" t="n">
+        <v>10.67011770134436</v>
+      </c>
+      <c r="D19" t="n">
+        <v>19.68769068938063</v>
+      </c>
+      <c r="E19" t="n">
+        <v>16.47567054343794</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.09535795911248313</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6.478620606181707</v>
+      </c>
+      <c r="C20" t="n">
+        <v>11.04275183198409</v>
+      </c>
+      <c r="D20" t="n">
+        <v>19.92650833851642</v>
+      </c>
+      <c r="E20" t="n">
+        <v>18.234776525541</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.09534800174970171</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>5.262445171850942</v>
+      </c>
+      <c r="C21" t="n">
+        <v>11.60689603504153</v>
+      </c>
+      <c r="D21" t="n">
+        <v>19.91445218281448</v>
+      </c>
+      <c r="E21" t="n">
+        <v>15.31332876117203</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.09533706643012207</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>4.229452072709716</v>
+      </c>
+      <c r="C22" t="n">
+        <v>10.90817645797489</v>
+      </c>
+      <c r="D22" t="n">
+        <v>19.74699453006854</v>
+      </c>
+      <c r="E22" t="n">
+        <v>16.23622912987106</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.09533596953419687</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>4.936317964045539</v>
+      </c>
+      <c r="C23" t="n">
+        <v>11.2648774046046</v>
+      </c>
+      <c r="D23" t="n">
+        <v>19.80925741212458</v>
+      </c>
+      <c r="E23" t="n">
+        <v>16.77821413220419</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.09519018770732002</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>5.480208602417708</v>
+      </c>
+      <c r="C24" t="n">
+        <v>10.31330668791271</v>
+      </c>
+      <c r="D24" t="n">
+        <v>19.68705630393053</v>
+      </c>
+      <c r="E24" t="n">
+        <v>15.92043272351119</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.095361971144452</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>4.492511750584132</v>
+      </c>
+      <c r="C25" t="n">
+        <v>12.17732630183643</v>
+      </c>
+      <c r="D25" t="n">
+        <v>19.86548250135824</v>
+      </c>
+      <c r="E25" t="n">
+        <v>16.47993880744613</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.09533595120068084</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>5.190791155392589</v>
+      </c>
+      <c r="C26" t="n">
+        <v>11.04379787654896</v>
+      </c>
+      <c r="D26" t="n">
+        <v>19.49762496387584</v>
+      </c>
+      <c r="E26" t="n">
+        <v>16.92541415868017</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.09526526879367081</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>5.081765125146905</v>
+      </c>
+      <c r="C27" t="n">
+        <v>9.174725694950801</v>
+      </c>
+      <c r="D27" t="n">
+        <v>19.58791652567369</v>
+      </c>
+      <c r="E27" t="n">
+        <v>15.5436118131275</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.09536509024217166</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3.922025949199487</v>
+      </c>
+      <c r="C28" t="n">
+        <v>11.70694793780167</v>
+      </c>
+      <c r="D28" t="n">
+        <v>19.75434209390869</v>
+      </c>
+      <c r="E28" t="n">
+        <v>14.47256109638509</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.0953678943462779</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>4.65941774251349</v>
+      </c>
+      <c r="C29" t="n">
+        <v>10.81454601573937</v>
+      </c>
+      <c r="D29" t="n">
+        <v>19.39094639469176</v>
+      </c>
+      <c r="E29" t="n">
+        <v>15.53957921985953</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.09536546452177275</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>5.717997898653149</v>
+      </c>
+      <c r="C30" t="n">
+        <v>10.45325727901049</v>
+      </c>
+      <c r="D30" t="n">
+        <v>19.79656478518043</v>
+      </c>
+      <c r="E30" t="n">
+        <v>16.28629148831333</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.09536024789621278</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Experiment 30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4.938619095358341</v>
+      </c>
+      <c r="C31" t="n">
+        <v>9.411540741621835</v>
+      </c>
+      <c r="D31" t="n">
+        <v>19.82409255145061</v>
+      </c>
+      <c r="E31" t="n">
+        <v>16.76277431811852</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.09534360654012586</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4.876430034046927</v>
+      </c>
+      <c r="C32" t="n">
+        <v>10.80055137531805</v>
+      </c>
+      <c r="D32" t="n">
+        <v>19.75234528423571</v>
+      </c>
+      <c r="E32" t="n">
+        <v>16.01368180731065</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.09534670465112383</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Standard Deviation</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.8685790902148323</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.8480446610412298</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.1540805570218949</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.9344796949476092</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3.567007003457529e-05</v>
       </c>
     </row>
   </sheetData>
